--- a/Code/Results/Cases/Case_3_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013111401767834</v>
+        <v>1.042616957467731</v>
       </c>
       <c r="D2">
-        <v>1.035146867365545</v>
+        <v>1.05096233040263</v>
       </c>
       <c r="E2">
-        <v>1.028672744041964</v>
+        <v>1.051091100870098</v>
       </c>
       <c r="F2">
-        <v>1.041746775756067</v>
+        <v>1.06279069561123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055911287471617</v>
+        <v>1.042499088653712</v>
       </c>
       <c r="J2">
-        <v>1.034906902287242</v>
+        <v>1.047691817825404</v>
       </c>
       <c r="K2">
-        <v>1.046137339312872</v>
+        <v>1.053715152177703</v>
       </c>
       <c r="L2">
-        <v>1.039746567411177</v>
+        <v>1.053843565336549</v>
       </c>
       <c r="M2">
-        <v>1.052653607227533</v>
+        <v>1.065511087553805</v>
       </c>
       <c r="N2">
-        <v>1.036376588793971</v>
+        <v>1.049179660378648</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017812617733877</v>
+        <v>1.043611792977963</v>
       </c>
       <c r="D3">
-        <v>1.038800104771917</v>
+        <v>1.051745002603919</v>
       </c>
       <c r="E3">
-        <v>1.032548766986595</v>
+        <v>1.051956871593313</v>
       </c>
       <c r="F3">
-        <v>1.045851317484586</v>
+        <v>1.063698177946945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057370635231419</v>
+        <v>1.042720277948297</v>
       </c>
       <c r="J3">
-        <v>1.037829196501694</v>
+        <v>1.048332939573941</v>
       </c>
       <c r="K3">
-        <v>1.048959480943956</v>
+        <v>1.054310452525342</v>
       </c>
       <c r="L3">
-        <v>1.042781453096786</v>
+        <v>1.054521776084281</v>
       </c>
       <c r="M3">
-        <v>1.05592930188174</v>
+        <v>1.066233221930496</v>
       </c>
       <c r="N3">
-        <v>1.039303033001399</v>
+        <v>1.049821692593605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020791804257719</v>
+        <v>1.044255879456775</v>
       </c>
       <c r="D4">
-        <v>1.041115758524004</v>
+        <v>1.052251428599154</v>
       </c>
       <c r="E4">
-        <v>1.03501031954501</v>
+        <v>1.052517692137305</v>
       </c>
       <c r="F4">
-        <v>1.048456109793692</v>
+        <v>1.064285796852853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058281710741637</v>
+        <v>1.042861779289435</v>
       </c>
       <c r="J4">
-        <v>1.039678203205181</v>
+        <v>1.048747541229604</v>
       </c>
       <c r="K4">
-        <v>1.050742040018628</v>
+        <v>1.054694978086035</v>
       </c>
       <c r="L4">
-        <v>1.044703793972679</v>
+        <v>1.054960590639244</v>
       </c>
       <c r="M4">
-        <v>1.058002877475951</v>
+        <v>1.066700273140494</v>
       </c>
       <c r="N4">
-        <v>1.041154665506489</v>
+        <v>1.050236883031174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022029760258489</v>
+        <v>1.044526739203339</v>
       </c>
       <c r="D5">
-        <v>1.04207807477097</v>
+        <v>1.052464325179201</v>
       </c>
       <c r="E5">
-        <v>1.03603440448205</v>
+        <v>1.052753605690222</v>
       </c>
       <c r="F5">
-        <v>1.049539332570445</v>
+        <v>1.064532930426142</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058656951703584</v>
+        <v>1.042920877305246</v>
       </c>
       <c r="J5">
-        <v>1.04044580584511</v>
+        <v>1.048921779784497</v>
       </c>
       <c r="K5">
-        <v>1.051481302826346</v>
+        <v>1.054856470399931</v>
       </c>
       <c r="L5">
-        <v>1.045502341010489</v>
+        <v>1.055145059386934</v>
       </c>
       <c r="M5">
-        <v>1.058863930428975</v>
+        <v>1.066896568183423</v>
       </c>
       <c r="N5">
-        <v>1.041923358230213</v>
+        <v>1.0504113690248</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022236783880441</v>
+        <v>1.044572222756435</v>
       </c>
       <c r="D6">
-        <v>1.042239006253979</v>
+        <v>1.052500071127355</v>
       </c>
       <c r="E6">
-        <v>1.036205733032138</v>
+        <v>1.05279322505815</v>
       </c>
       <c r="F6">
-        <v>1.049720528059908</v>
+        <v>1.064574430984301</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058719505366508</v>
+        <v>1.042930777284341</v>
       </c>
       <c r="J6">
-        <v>1.04057412857661</v>
+        <v>1.048951031662428</v>
       </c>
       <c r="K6">
-        <v>1.051604843070163</v>
+        <v>1.054883576128206</v>
       </c>
       <c r="L6">
-        <v>1.045635866167197</v>
+        <v>1.055176031952186</v>
       </c>
       <c r="M6">
-        <v>1.05900788836149</v>
+        <v>1.066929523828388</v>
       </c>
       <c r="N6">
-        <v>1.04205186319471</v>
+        <v>1.050440662443754</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020808402137751</v>
+        <v>1.044259498361771</v>
       </c>
       <c r="D7">
-        <v>1.041128660520354</v>
+        <v>1.052254273354551</v>
       </c>
       <c r="E7">
-        <v>1.035024045176424</v>
+        <v>1.052520843859091</v>
       </c>
       <c r="F7">
-        <v>1.048470629836468</v>
+        <v>1.064289098678</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058286755051662</v>
+        <v>1.04286257048988</v>
       </c>
       <c r="J7">
-        <v>1.039688497736224</v>
+        <v>1.048749869650462</v>
       </c>
       <c r="K7">
-        <v>1.050751957479259</v>
+        <v>1.054697136592933</v>
       </c>
       <c r="L7">
-        <v>1.044714501533638</v>
+        <v>1.05496305555582</v>
       </c>
       <c r="M7">
-        <v>1.058014424429202</v>
+        <v>1.06670289625522</v>
       </c>
       <c r="N7">
-        <v>1.041164974656946</v>
+        <v>1.050239214758657</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014713542388241</v>
+        <v>1.042953091524062</v>
       </c>
       <c r="D8">
-        <v>1.036391707834259</v>
+        <v>1.051226840542107</v>
       </c>
       <c r="E8">
-        <v>1.029992525051842</v>
+        <v>1.051383565323846</v>
       </c>
       <c r="F8">
-        <v>1.04314476092364</v>
+        <v>1.063097296371304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05641146937834</v>
+        <v>1.04257417627818</v>
       </c>
       <c r="J8">
-        <v>1.03590337805427</v>
+        <v>1.047908538550443</v>
       </c>
       <c r="K8">
-        <v>1.047100300601986</v>
+        <v>1.05391647559796</v>
       </c>
       <c r="L8">
-        <v>1.040780994438521</v>
+        <v>1.054072776124363</v>
       </c>
       <c r="M8">
-        <v>1.053770381195192</v>
+        <v>1.065755180734573</v>
       </c>
       <c r="N8">
-        <v>1.037374479670886</v>
+        <v>1.049396688871974</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003466604022735</v>
+        <v>1.040653835241551</v>
       </c>
       <c r="D9">
-        <v>1.027657900971625</v>
+        <v>1.049416310980646</v>
       </c>
       <c r="E9">
-        <v>1.020752247553305</v>
+        <v>1.049384252070489</v>
       </c>
       <c r="F9">
-        <v>1.033349049496841</v>
+        <v>1.061000439652757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052844062086069</v>
+        <v>1.042053586210278</v>
       </c>
       <c r="J9">
-        <v>1.02889753866748</v>
+        <v>1.046424151428842</v>
       </c>
       <c r="K9">
-        <v>1.040317637807502</v>
+        <v>1.052535735309763</v>
       </c>
       <c r="L9">
-        <v>1.033517373241822</v>
+        <v>1.052503778077972</v>
       </c>
       <c r="M9">
-        <v>1.045923279135721</v>
+        <v>1.064083563044362</v>
       </c>
       <c r="N9">
-        <v>1.030358691188585</v>
+        <v>1.047910193750398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955890440081536</v>
+        <v>1.039122920699602</v>
       </c>
       <c r="D10">
-        <v>1.021549670257414</v>
+        <v>1.048209322865195</v>
       </c>
       <c r="E10">
-        <v>1.014313743907075</v>
+        <v>1.048054617659269</v>
       </c>
       <c r="F10">
-        <v>1.026513586299306</v>
+        <v>1.059604795635821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050276340301793</v>
+        <v>1.041698222977736</v>
       </c>
       <c r="J10">
-        <v>1.023978768563374</v>
+        <v>1.045433362499494</v>
       </c>
       <c r="K10">
-        <v>1.035540442399155</v>
+        <v>1.05161185872137</v>
       </c>
       <c r="L10">
-        <v>1.028429280721553</v>
+        <v>1.051457692253817</v>
       </c>
       <c r="M10">
-        <v>1.040420080900456</v>
+        <v>1.062968124097574</v>
       </c>
       <c r="N10">
-        <v>1.02543293586674</v>
+        <v>1.046917997787126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9920785211548718</v>
+        <v>1.038460481848157</v>
       </c>
       <c r="D11">
-        <v>1.018830750648472</v>
+        <v>1.047686706172115</v>
       </c>
       <c r="E11">
-        <v>1.011453299696241</v>
+        <v>1.047479654341878</v>
       </c>
       <c r="F11">
-        <v>1.02347445383489</v>
+        <v>1.059001017790879</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049116469287069</v>
+        <v>1.041542384609242</v>
       </c>
       <c r="J11">
-        <v>1.021784596821395</v>
+        <v>1.04500406588519</v>
       </c>
       <c r="K11">
-        <v>1.03340607439733</v>
+        <v>1.051211019066496</v>
       </c>
       <c r="L11">
-        <v>1.026162408222742</v>
+        <v>1.051004716175836</v>
       </c>
       <c r="M11">
-        <v>1.037966850749696</v>
+        <v>1.062484896020963</v>
       </c>
       <c r="N11">
-        <v>1.023235648149213</v>
+        <v>1.046488091522388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9907587397329042</v>
+        <v>1.0382144918211</v>
       </c>
       <c r="D12">
-        <v>1.017809129650908</v>
+        <v>1.047492586795591</v>
       </c>
       <c r="E12">
-        <v>1.010379309453329</v>
+        <v>1.047266205237373</v>
       </c>
       <c r="F12">
-        <v>1.022333025203616</v>
+        <v>1.058776830911547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048678140678845</v>
+        <v>1.0414842048044</v>
       </c>
       <c r="J12">
-        <v>1.020959421907697</v>
+        <v>1.044844564922972</v>
       </c>
       <c r="K12">
-        <v>1.032602907611742</v>
+        <v>1.05106201080654</v>
       </c>
       <c r="L12">
-        <v>1.025310323704391</v>
+        <v>1.050836459450887</v>
       </c>
       <c r="M12">
-        <v>1.037044512691551</v>
+        <v>1.062305369183447</v>
       </c>
       <c r="N12">
-        <v>1.022409301392488</v>
+        <v>1.046328364050509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9910425677546786</v>
+        <v>1.038267254373859</v>
       </c>
       <c r="D13">
-        <v>1.018028809612818</v>
+        <v>1.047534225873311</v>
       </c>
       <c r="E13">
-        <v>1.010610214180315</v>
+        <v>1.04731198544307</v>
       </c>
       <c r="F13">
-        <v>1.022578444649539</v>
+        <v>1.058824915978995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048772507881987</v>
+        <v>1.041496697888043</v>
       </c>
       <c r="J13">
-        <v>1.021136892991267</v>
+        <v>1.044878780267944</v>
       </c>
       <c r="K13">
-        <v>1.032775666850436</v>
+        <v>1.051093978935416</v>
       </c>
       <c r="L13">
-        <v>1.02549356266703</v>
+        <v>1.050872551131838</v>
       </c>
       <c r="M13">
-        <v>1.037242868620858</v>
+        <v>1.062343879840958</v>
       </c>
       <c r="N13">
-        <v>1.022587024505353</v>
+        <v>1.046362627985196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9919697555295647</v>
+        <v>1.038440146819698</v>
       </c>
       <c r="D14">
-        <v>1.018746545132773</v>
+        <v>1.047670660121054</v>
       </c>
       <c r="E14">
-        <v>1.01136476140114</v>
+        <v>1.047462008161337</v>
       </c>
       <c r="F14">
-        <v>1.023380363062942</v>
+        <v>1.058982484731551</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049080391642254</v>
+        <v>1.041537581452971</v>
       </c>
       <c r="J14">
-        <v>1.021716597920338</v>
+        <v>1.044990882319679</v>
       </c>
       <c r="K14">
-        <v>1.033339898771007</v>
+        <v>1.051198704410882</v>
       </c>
       <c r="L14">
-        <v>1.026092183020347</v>
+        <v>1.050990808042783</v>
       </c>
       <c r="M14">
-        <v>1.037890839651004</v>
+        <v>1.062470056972892</v>
       </c>
       <c r="N14">
-        <v>1.023167552681917</v>
+        <v>1.046474889234703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9925389035135938</v>
+        <v>1.038546680755864</v>
       </c>
       <c r="D15">
-        <v>1.019187198387311</v>
+        <v>1.047754722293246</v>
       </c>
       <c r="E15">
-        <v>1.011828121223906</v>
+        <v>1.047554457761843</v>
       </c>
       <c r="F15">
-        <v>1.023872767279572</v>
+        <v>1.059079579086685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049269086185951</v>
+        <v>1.041562732159016</v>
       </c>
       <c r="J15">
-        <v>1.022072411165679</v>
+        <v>1.045059946671861</v>
       </c>
       <c r="K15">
-        <v>1.033686151948842</v>
+        <v>1.051263213547823</v>
       </c>
       <c r="L15">
-        <v>1.026459663298745</v>
+        <v>1.051063669889995</v>
       </c>
       <c r="M15">
-        <v>1.038288588569907</v>
+        <v>1.06254779433761</v>
       </c>
       <c r="N15">
-        <v>1.023523871222879</v>
+        <v>1.046544051666186</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9958198569390686</v>
+        <v>1.039166894266015</v>
       </c>
       <c r="D16">
-        <v>1.02172850855626</v>
+        <v>1.04824400767383</v>
       </c>
       <c r="E16">
-        <v>1.014502004026173</v>
+        <v>1.048092792549888</v>
       </c>
       <c r="F16">
-        <v>1.026713558396231</v>
+        <v>1.059644877971077</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050352281320981</v>
+        <v>1.041708524128824</v>
       </c>
       <c r="J16">
-        <v>1.024122991692671</v>
+        <v>1.045461847699086</v>
       </c>
       <c r="K16">
-        <v>1.035680666601365</v>
+        <v>1.051638444454183</v>
       </c>
       <c r="L16">
-        <v>1.028578341919411</v>
+        <v>1.051487754562863</v>
       </c>
       <c r="M16">
-        <v>1.040581367476941</v>
+        <v>1.063000189473185</v>
       </c>
       <c r="N16">
-        <v>1.025577363809424</v>
+        <v>1.046946523438969</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9978506822150336</v>
+        <v>1.039556060628911</v>
       </c>
       <c r="D17">
-        <v>1.023302396983509</v>
+        <v>1.048550928871465</v>
       </c>
       <c r="E17">
-        <v>1.01615943316418</v>
+        <v>1.048430684593142</v>
       </c>
       <c r="F17">
-        <v>1.028473833681403</v>
+        <v>1.059999621833469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051018687086511</v>
+        <v>1.041799450207451</v>
       </c>
       <c r="J17">
-        <v>1.025391706835105</v>
+        <v>1.045713875572269</v>
       </c>
       <c r="K17">
-        <v>1.036913825075392</v>
+        <v>1.051873604663575</v>
       </c>
       <c r="L17">
-        <v>1.029889939641688</v>
+        <v>1.051753768533197</v>
       </c>
       <c r="M17">
-        <v>1.0420003766563</v>
+        <v>1.063283902598619</v>
       </c>
       <c r="N17">
-        <v>1.026847880672884</v>
+        <v>1.04719890922064</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.999025691193597</v>
+        <v>1.039783098864258</v>
       </c>
       <c r="D18">
-        <v>1.024213318840069</v>
+        <v>1.048729952388188</v>
       </c>
       <c r="E18">
-        <v>1.017119227956931</v>
+        <v>1.048627846215178</v>
       </c>
       <c r="F18">
-        <v>1.029492963687541</v>
+        <v>1.060206590453766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051402776332768</v>
+        <v>1.041852296342241</v>
       </c>
       <c r="J18">
-        <v>1.026125557340947</v>
+        <v>1.045860852248103</v>
       </c>
       <c r="K18">
-        <v>1.037626789937861</v>
+        <v>1.052010692871108</v>
       </c>
       <c r="L18">
-        <v>1.030648862198923</v>
+        <v>1.051908928571571</v>
       </c>
       <c r="M18">
-        <v>1.042821315049586</v>
+        <v>1.063449364861416</v>
       </c>
       <c r="N18">
-        <v>1.027582773330618</v>
+        <v>1.047346094620213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9994247466311958</v>
+        <v>1.039860520495014</v>
       </c>
       <c r="D19">
-        <v>1.024522732019179</v>
+        <v>1.048790995012783</v>
       </c>
       <c r="E19">
-        <v>1.017445330847639</v>
+        <v>1.048695085905305</v>
       </c>
       <c r="F19">
-        <v>1.029839188835314</v>
+        <v>1.06027717027826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051532966551388</v>
+        <v>1.041870283348326</v>
       </c>
       <c r="J19">
-        <v>1.026374749529207</v>
+        <v>1.045910962907593</v>
       </c>
       <c r="K19">
-        <v>1.037868835322656</v>
+        <v>1.052057423360052</v>
       </c>
       <c r="L19">
-        <v>1.030906613325531</v>
+        <v>1.051961833869488</v>
       </c>
       <c r="M19">
-        <v>1.043100105312515</v>
+        <v>1.063505779319125</v>
       </c>
       <c r="N19">
-        <v>1.027832319400368</v>
+        <v>1.047396276442586</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9976337864291264</v>
+        <v>1.03951430219767</v>
       </c>
       <c r="D20">
-        <v>1.023134272117887</v>
+        <v>1.048517998960308</v>
       </c>
       <c r="E20">
-        <v>1.015982330334972</v>
+        <v>1.048394424218313</v>
       </c>
       <c r="F20">
-        <v>1.028285764304003</v>
+        <v>1.059961555732575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050947667292484</v>
+        <v>1.041789714297594</v>
       </c>
       <c r="J20">
-        <v>1.025256227353215</v>
+        <v>1.045686838145484</v>
       </c>
       <c r="K20">
-        <v>1.036782175457025</v>
+        <v>1.051848382132337</v>
       </c>
       <c r="L20">
-        <v>1.029749853111178</v>
+        <v>1.051725227891255</v>
       </c>
       <c r="M20">
-        <v>1.041848831889365</v>
+        <v>1.063253465216736</v>
       </c>
       <c r="N20">
-        <v>1.02671220879459</v>
+        <v>1.047171833397608</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9916971657746078</v>
+        <v>1.038389232387267</v>
       </c>
       <c r="D21">
-        <v>1.018535517507063</v>
+        <v>1.047630483523288</v>
       </c>
       <c r="E21">
-        <v>1.011142888346136</v>
+        <v>1.04741782694726</v>
       </c>
       <c r="F21">
-        <v>1.023144570154479</v>
+        <v>1.058936082357901</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048989936999694</v>
+        <v>1.041525550387346</v>
       </c>
       <c r="J21">
-        <v>1.021546173977629</v>
+        <v>1.044957872187635</v>
       </c>
       <c r="K21">
-        <v>1.033174036754891</v>
+        <v>1.051167868634529</v>
       </c>
       <c r="L21">
-        <v>1.025916186324153</v>
+        <v>1.050955984357304</v>
       </c>
       <c r="M21">
-        <v>1.037700339219558</v>
+        <v>1.06243290189448</v>
       </c>
       <c r="N21">
-        <v>1.022996886717661</v>
+        <v>1.046441832224485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878725860495027</v>
+        <v>1.037682257325402</v>
       </c>
       <c r="D22">
-        <v>1.015576130819369</v>
+        <v>1.047072489510899</v>
       </c>
       <c r="E22">
-        <v>1.008033311891742</v>
+        <v>1.046804484001171</v>
       </c>
       <c r="F22">
-        <v>1.019839080954796</v>
+        <v>1.05829180789423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047715480264996</v>
+        <v>1.041357756452176</v>
       </c>
       <c r="J22">
-        <v>1.019154448694182</v>
+        <v>1.044499305022175</v>
       </c>
       <c r="K22">
-        <v>1.030845210427546</v>
+        <v>1.050739317240852</v>
       </c>
       <c r="L22">
-        <v>1.023447289608249</v>
+        <v>1.050472323664052</v>
       </c>
       <c r="M22">
-        <v>1.035027507217749</v>
+        <v>1.061916782544428</v>
       </c>
       <c r="N22">
-        <v>1.020601764909977</v>
+        <v>1.045982613841052</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9899090954272008</v>
+        <v>1.038056999985714</v>
       </c>
       <c r="D23">
-        <v>1.017151602334161</v>
+        <v>1.047368290206895</v>
       </c>
       <c r="E23">
-        <v>1.009688302228094</v>
+        <v>1.047129563635816</v>
       </c>
       <c r="F23">
-        <v>1.021598530390005</v>
+        <v>1.058633303957429</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048395322855664</v>
+        <v>1.041446868495636</v>
       </c>
       <c r="J23">
-        <v>1.020428122855399</v>
+        <v>1.044742422398927</v>
       </c>
       <c r="K23">
-        <v>1.032085645421147</v>
+        <v>1.050966565133895</v>
       </c>
       <c r="L23">
-        <v>1.024761820946774</v>
+        <v>1.050728721700543</v>
       </c>
       <c r="M23">
-        <v>1.036450729928503</v>
+        <v>1.062190405674327</v>
       </c>
       <c r="N23">
-        <v>1.021877247834595</v>
+        <v>1.046226076472365</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9977318217073027</v>
+        <v>1.039533170899048</v>
       </c>
       <c r="D24">
-        <v>1.023210262409273</v>
+        <v>1.048532878564926</v>
       </c>
       <c r="E24">
-        <v>1.016062376931692</v>
+        <v>1.04841080848951</v>
       </c>
       <c r="F24">
-        <v>1.028370768227198</v>
+        <v>1.059978756002814</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050979772318047</v>
+        <v>1.041794114121754</v>
       </c>
       <c r="J24">
-        <v>1.025317463728832</v>
+        <v>1.045699055278041</v>
       </c>
       <c r="K24">
-        <v>1.036841681734912</v>
+        <v>1.051859779345747</v>
       </c>
       <c r="L24">
-        <v>1.029813171030504</v>
+        <v>1.051738124183237</v>
       </c>
       <c r="M24">
-        <v>1.041917329253462</v>
+        <v>1.063267218629964</v>
       </c>
       <c r="N24">
-        <v>1.026773532132884</v>
+        <v>1.047184067879894</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006438116585394</v>
+        <v>1.04124791215469</v>
       </c>
       <c r="D25">
-        <v>1.029964168359089</v>
+        <v>1.049884376034758</v>
       </c>
       <c r="E25">
-        <v>1.023188066000725</v>
+        <v>1.049900556302729</v>
       </c>
       <c r="F25">
-        <v>1.035933010313239</v>
+        <v>1.061542134397958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053798732239585</v>
+        <v>1.042189637315633</v>
       </c>
       <c r="J25">
-        <v>1.030750738165042</v>
+        <v>1.046808115743321</v>
       </c>
       <c r="K25">
-        <v>1.0421144783226</v>
+        <v>1.052893290187217</v>
       </c>
       <c r="L25">
-        <v>1.035436773784022</v>
+        <v>1.052909421083934</v>
       </c>
       <c r="M25">
-        <v>1.047997993656713</v>
+        <v>1.064515901950715</v>
       </c>
       <c r="N25">
-        <v>1.032214522441999</v>
+        <v>1.048294703338246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_91/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_91/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042616957467731</v>
+        <v>1.013111401767833</v>
       </c>
       <c r="D2">
-        <v>1.05096233040263</v>
+        <v>1.035146867365544</v>
       </c>
       <c r="E2">
-        <v>1.051091100870098</v>
+        <v>1.028672744041963</v>
       </c>
       <c r="F2">
-        <v>1.06279069561123</v>
+        <v>1.041746775756067</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042499088653712</v>
+        <v>1.055911287471616</v>
       </c>
       <c r="J2">
-        <v>1.047691817825404</v>
+        <v>1.034906902287242</v>
       </c>
       <c r="K2">
-        <v>1.053715152177703</v>
+        <v>1.046137339312872</v>
       </c>
       <c r="L2">
-        <v>1.053843565336549</v>
+        <v>1.039746567411176</v>
       </c>
       <c r="M2">
-        <v>1.065511087553805</v>
+        <v>1.052653607227532</v>
       </c>
       <c r="N2">
-        <v>1.049179660378648</v>
+        <v>1.03637658879397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043611792977963</v>
+        <v>1.017812617733877</v>
       </c>
       <c r="D3">
-        <v>1.051745002603919</v>
+        <v>1.038800104771917</v>
       </c>
       <c r="E3">
-        <v>1.051956871593313</v>
+        <v>1.032548766986595</v>
       </c>
       <c r="F3">
-        <v>1.063698177946945</v>
+        <v>1.045851317484585</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042720277948297</v>
+        <v>1.057370635231419</v>
       </c>
       <c r="J3">
-        <v>1.048332939573941</v>
+        <v>1.037829196501693</v>
       </c>
       <c r="K3">
-        <v>1.054310452525342</v>
+        <v>1.048959480943956</v>
       </c>
       <c r="L3">
-        <v>1.054521776084281</v>
+        <v>1.042781453096785</v>
       </c>
       <c r="M3">
-        <v>1.066233221930496</v>
+        <v>1.05592930188174</v>
       </c>
       <c r="N3">
-        <v>1.049821692593605</v>
+        <v>1.039303033001398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044255879456775</v>
+        <v>1.020791804257718</v>
       </c>
       <c r="D4">
-        <v>1.052251428599154</v>
+        <v>1.041115758524004</v>
       </c>
       <c r="E4">
-        <v>1.052517692137305</v>
+        <v>1.03501031954501</v>
       </c>
       <c r="F4">
-        <v>1.064285796852853</v>
+        <v>1.048456109793692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042861779289435</v>
+        <v>1.058281710741637</v>
       </c>
       <c r="J4">
-        <v>1.048747541229604</v>
+        <v>1.03967820320518</v>
       </c>
       <c r="K4">
-        <v>1.054694978086035</v>
+        <v>1.050742040018628</v>
       </c>
       <c r="L4">
-        <v>1.054960590639244</v>
+        <v>1.044703793972679</v>
       </c>
       <c r="M4">
-        <v>1.066700273140494</v>
+        <v>1.058002877475951</v>
       </c>
       <c r="N4">
-        <v>1.050236883031174</v>
+        <v>1.041154665506488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044526739203339</v>
+        <v>1.022029760258489</v>
       </c>
       <c r="D5">
-        <v>1.052464325179201</v>
+        <v>1.04207807477097</v>
       </c>
       <c r="E5">
-        <v>1.052753605690222</v>
+        <v>1.03603440448205</v>
       </c>
       <c r="F5">
-        <v>1.064532930426142</v>
+        <v>1.049539332570446</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042920877305246</v>
+        <v>1.058656951703584</v>
       </c>
       <c r="J5">
-        <v>1.048921779784497</v>
+        <v>1.04044580584511</v>
       </c>
       <c r="K5">
-        <v>1.054856470399931</v>
+        <v>1.051481302826346</v>
       </c>
       <c r="L5">
-        <v>1.055145059386934</v>
+        <v>1.045502341010489</v>
       </c>
       <c r="M5">
-        <v>1.066896568183423</v>
+        <v>1.058863930428975</v>
       </c>
       <c r="N5">
-        <v>1.0504113690248</v>
+        <v>1.041923358230212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044572222756435</v>
+        <v>1.022236783880441</v>
       </c>
       <c r="D6">
-        <v>1.052500071127355</v>
+        <v>1.042239006253979</v>
       </c>
       <c r="E6">
-        <v>1.05279322505815</v>
+        <v>1.036205733032138</v>
       </c>
       <c r="F6">
-        <v>1.064574430984301</v>
+        <v>1.049720528059908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042930777284341</v>
+        <v>1.058719505366508</v>
       </c>
       <c r="J6">
-        <v>1.048951031662428</v>
+        <v>1.04057412857661</v>
       </c>
       <c r="K6">
-        <v>1.054883576128206</v>
+        <v>1.051604843070163</v>
       </c>
       <c r="L6">
-        <v>1.055176031952186</v>
+        <v>1.045635866167197</v>
       </c>
       <c r="M6">
-        <v>1.066929523828388</v>
+        <v>1.05900788836149</v>
       </c>
       <c r="N6">
-        <v>1.050440662443754</v>
+        <v>1.04205186319471</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044259498361771</v>
+        <v>1.020808402137751</v>
       </c>
       <c r="D7">
-        <v>1.052254273354551</v>
+        <v>1.041128660520354</v>
       </c>
       <c r="E7">
-        <v>1.052520843859091</v>
+        <v>1.035024045176423</v>
       </c>
       <c r="F7">
-        <v>1.064289098678</v>
+        <v>1.048470629836467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04286257048988</v>
+        <v>1.058286755051662</v>
       </c>
       <c r="J7">
-        <v>1.048749869650462</v>
+        <v>1.039688497736223</v>
       </c>
       <c r="K7">
-        <v>1.054697136592933</v>
+        <v>1.050751957479259</v>
       </c>
       <c r="L7">
-        <v>1.05496305555582</v>
+        <v>1.044714501533638</v>
       </c>
       <c r="M7">
-        <v>1.06670289625522</v>
+        <v>1.058014424429201</v>
       </c>
       <c r="N7">
-        <v>1.050239214758657</v>
+        <v>1.041164974656946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042953091524062</v>
+        <v>1.01471354238824</v>
       </c>
       <c r="D8">
-        <v>1.051226840542107</v>
+        <v>1.036391707834259</v>
       </c>
       <c r="E8">
-        <v>1.051383565323846</v>
+        <v>1.029992525051842</v>
       </c>
       <c r="F8">
-        <v>1.063097296371304</v>
+        <v>1.04314476092364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04257417627818</v>
+        <v>1.05641146937834</v>
       </c>
       <c r="J8">
-        <v>1.047908538550443</v>
+        <v>1.03590337805427</v>
       </c>
       <c r="K8">
-        <v>1.05391647559796</v>
+        <v>1.047100300601986</v>
       </c>
       <c r="L8">
-        <v>1.054072776124363</v>
+        <v>1.040780994438521</v>
       </c>
       <c r="M8">
-        <v>1.065755180734573</v>
+        <v>1.053770381195192</v>
       </c>
       <c r="N8">
-        <v>1.049396688871974</v>
+        <v>1.037374479670885</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040653835241551</v>
+        <v>1.003466604022736</v>
       </c>
       <c r="D9">
-        <v>1.049416310980646</v>
+        <v>1.027657900971626</v>
       </c>
       <c r="E9">
-        <v>1.049384252070489</v>
+        <v>1.020752247553306</v>
       </c>
       <c r="F9">
-        <v>1.061000439652757</v>
+        <v>1.033349049496842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042053586210278</v>
+        <v>1.05284406208607</v>
       </c>
       <c r="J9">
-        <v>1.046424151428842</v>
+        <v>1.028897538667481</v>
       </c>
       <c r="K9">
-        <v>1.052535735309763</v>
+        <v>1.040317637807503</v>
       </c>
       <c r="L9">
-        <v>1.052503778077972</v>
+        <v>1.033517373241822</v>
       </c>
       <c r="M9">
-        <v>1.064083563044362</v>
+        <v>1.045923279135722</v>
       </c>
       <c r="N9">
-        <v>1.047910193750398</v>
+        <v>1.030358691188586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039122920699602</v>
+        <v>0.9955890440081542</v>
       </c>
       <c r="D10">
-        <v>1.048209322865195</v>
+        <v>1.021549670257414</v>
       </c>
       <c r="E10">
-        <v>1.048054617659269</v>
+        <v>1.014313743907075</v>
       </c>
       <c r="F10">
-        <v>1.059604795635821</v>
+        <v>1.026513586299307</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041698222977736</v>
+        <v>1.050276340301793</v>
       </c>
       <c r="J10">
-        <v>1.045433362499494</v>
+        <v>1.023978768563374</v>
       </c>
       <c r="K10">
-        <v>1.05161185872137</v>
+        <v>1.035540442399155</v>
       </c>
       <c r="L10">
-        <v>1.051457692253817</v>
+        <v>1.028429280721553</v>
       </c>
       <c r="M10">
-        <v>1.062968124097574</v>
+        <v>1.040420080900457</v>
       </c>
       <c r="N10">
-        <v>1.046917997787126</v>
+        <v>1.02543293586674</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038460481848157</v>
+        <v>0.9920785211548728</v>
       </c>
       <c r="D11">
-        <v>1.047686706172115</v>
+        <v>1.018830750648473</v>
       </c>
       <c r="E11">
-        <v>1.047479654341878</v>
+        <v>1.011453299696242</v>
       </c>
       <c r="F11">
-        <v>1.059001017790879</v>
+        <v>1.023474453834891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542384609242</v>
+        <v>1.04911646928707</v>
       </c>
       <c r="J11">
-        <v>1.04500406588519</v>
+        <v>1.021784596821396</v>
       </c>
       <c r="K11">
-        <v>1.051211019066496</v>
+        <v>1.033406074397331</v>
       </c>
       <c r="L11">
-        <v>1.051004716175836</v>
+        <v>1.026162408222743</v>
       </c>
       <c r="M11">
-        <v>1.062484896020963</v>
+        <v>1.037966850749698</v>
       </c>
       <c r="N11">
-        <v>1.046488091522388</v>
+        <v>1.023235648149214</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0382144918211</v>
+        <v>0.9907587397329043</v>
       </c>
       <c r="D12">
-        <v>1.047492586795591</v>
+        <v>1.017809129650908</v>
       </c>
       <c r="E12">
-        <v>1.047266205237373</v>
+        <v>1.010379309453329</v>
       </c>
       <c r="F12">
-        <v>1.058776830911547</v>
+        <v>1.022333025203616</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0414842048044</v>
+        <v>1.048678140678845</v>
       </c>
       <c r="J12">
-        <v>1.044844564922972</v>
+        <v>1.020959421907697</v>
       </c>
       <c r="K12">
-        <v>1.05106201080654</v>
+        <v>1.032602907611742</v>
       </c>
       <c r="L12">
-        <v>1.050836459450887</v>
+        <v>1.025310323704392</v>
       </c>
       <c r="M12">
-        <v>1.062305369183447</v>
+        <v>1.037044512691552</v>
       </c>
       <c r="N12">
-        <v>1.046328364050509</v>
+        <v>1.022409301392488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038267254373859</v>
+        <v>0.9910425677546779</v>
       </c>
       <c r="D13">
-        <v>1.047534225873311</v>
+        <v>1.018028809612817</v>
       </c>
       <c r="E13">
-        <v>1.04731198544307</v>
+        <v>1.010610214180315</v>
       </c>
       <c r="F13">
-        <v>1.058824915978995</v>
+        <v>1.022578444649539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041496697888043</v>
+        <v>1.048772507881987</v>
       </c>
       <c r="J13">
-        <v>1.044878780267944</v>
+        <v>1.021136892991266</v>
       </c>
       <c r="K13">
-        <v>1.051093978935416</v>
+        <v>1.032775666850435</v>
       </c>
       <c r="L13">
-        <v>1.050872551131838</v>
+        <v>1.02549356266703</v>
       </c>
       <c r="M13">
-        <v>1.062343879840958</v>
+        <v>1.037242868620857</v>
       </c>
       <c r="N13">
-        <v>1.046362627985196</v>
+        <v>1.022587024505352</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038440146819698</v>
+        <v>0.9919697555295646</v>
       </c>
       <c r="D14">
-        <v>1.047670660121054</v>
+        <v>1.018746545132772</v>
       </c>
       <c r="E14">
-        <v>1.047462008161337</v>
+        <v>1.01136476140114</v>
       </c>
       <c r="F14">
-        <v>1.058982484731551</v>
+        <v>1.023380363062942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041537581452971</v>
+        <v>1.049080391642254</v>
       </c>
       <c r="J14">
-        <v>1.044990882319679</v>
+        <v>1.021716597920338</v>
       </c>
       <c r="K14">
-        <v>1.051198704410882</v>
+        <v>1.033339898771006</v>
       </c>
       <c r="L14">
-        <v>1.050990808042783</v>
+        <v>1.026092183020347</v>
       </c>
       <c r="M14">
-        <v>1.062470056972892</v>
+        <v>1.037890839651003</v>
       </c>
       <c r="N14">
-        <v>1.046474889234703</v>
+        <v>1.023167552681917</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038546680755864</v>
+        <v>0.9925389035135936</v>
       </c>
       <c r="D15">
-        <v>1.047754722293246</v>
+        <v>1.019187198387311</v>
       </c>
       <c r="E15">
-        <v>1.047554457761843</v>
+        <v>1.011828121223906</v>
       </c>
       <c r="F15">
-        <v>1.059079579086685</v>
+        <v>1.023872767279572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041562732159016</v>
+        <v>1.049269086185951</v>
       </c>
       <c r="J15">
-        <v>1.045059946671861</v>
+        <v>1.022072411165679</v>
       </c>
       <c r="K15">
-        <v>1.051263213547823</v>
+        <v>1.033686151948842</v>
       </c>
       <c r="L15">
-        <v>1.051063669889995</v>
+        <v>1.026459663298745</v>
       </c>
       <c r="M15">
-        <v>1.06254779433761</v>
+        <v>1.038288588569907</v>
       </c>
       <c r="N15">
-        <v>1.046544051666186</v>
+        <v>1.023523871222878</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039166894266015</v>
+        <v>0.9958198569390686</v>
       </c>
       <c r="D16">
-        <v>1.04824400767383</v>
+        <v>1.02172850855626</v>
       </c>
       <c r="E16">
-        <v>1.048092792549888</v>
+        <v>1.014502004026173</v>
       </c>
       <c r="F16">
-        <v>1.059644877971077</v>
+        <v>1.026713558396231</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041708524128824</v>
+        <v>1.050352281320981</v>
       </c>
       <c r="J16">
-        <v>1.045461847699086</v>
+        <v>1.024122991692671</v>
       </c>
       <c r="K16">
-        <v>1.051638444454183</v>
+        <v>1.035680666601365</v>
       </c>
       <c r="L16">
-        <v>1.051487754562863</v>
+        <v>1.028578341919411</v>
       </c>
       <c r="M16">
-        <v>1.063000189473185</v>
+        <v>1.040581367476941</v>
       </c>
       <c r="N16">
-        <v>1.046946523438969</v>
+        <v>1.025577363809424</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039556060628911</v>
+        <v>0.9978506822150336</v>
       </c>
       <c r="D17">
-        <v>1.048550928871465</v>
+        <v>1.023302396983509</v>
       </c>
       <c r="E17">
-        <v>1.048430684593142</v>
+        <v>1.01615943316418</v>
       </c>
       <c r="F17">
-        <v>1.059999621833469</v>
+        <v>1.028473833681403</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041799450207451</v>
+        <v>1.051018687086511</v>
       </c>
       <c r="J17">
-        <v>1.045713875572269</v>
+        <v>1.025391706835105</v>
       </c>
       <c r="K17">
-        <v>1.051873604663575</v>
+        <v>1.036913825075392</v>
       </c>
       <c r="L17">
-        <v>1.051753768533197</v>
+        <v>1.029889939641688</v>
       </c>
       <c r="M17">
-        <v>1.063283902598619</v>
+        <v>1.0420003766563</v>
       </c>
       <c r="N17">
-        <v>1.04719890922064</v>
+        <v>1.026847880672884</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039783098864258</v>
+        <v>0.9990256911935955</v>
       </c>
       <c r="D18">
-        <v>1.048729952388188</v>
+        <v>1.024213318840068</v>
       </c>
       <c r="E18">
-        <v>1.048627846215178</v>
+        <v>1.017119227956929</v>
       </c>
       <c r="F18">
-        <v>1.060206590453766</v>
+        <v>1.02949296368754</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041852296342241</v>
+        <v>1.051402776332767</v>
       </c>
       <c r="J18">
-        <v>1.045860852248103</v>
+        <v>1.026125557340946</v>
       </c>
       <c r="K18">
-        <v>1.052010692871108</v>
+        <v>1.037626789937859</v>
       </c>
       <c r="L18">
-        <v>1.051908928571571</v>
+        <v>1.030648862198921</v>
       </c>
       <c r="M18">
-        <v>1.063449364861416</v>
+        <v>1.042821315049584</v>
       </c>
       <c r="N18">
-        <v>1.047346094620213</v>
+        <v>1.027582773330616</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039860520495014</v>
+        <v>0.9994247466311961</v>
       </c>
       <c r="D19">
-        <v>1.048790995012783</v>
+        <v>1.024522732019179</v>
       </c>
       <c r="E19">
-        <v>1.048695085905305</v>
+        <v>1.017445330847639</v>
       </c>
       <c r="F19">
-        <v>1.06027717027826</v>
+        <v>1.029839188835314</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041870283348326</v>
+        <v>1.051532966551388</v>
       </c>
       <c r="J19">
-        <v>1.045910962907593</v>
+        <v>1.026374749529207</v>
       </c>
       <c r="K19">
-        <v>1.052057423360052</v>
+        <v>1.037868835322656</v>
       </c>
       <c r="L19">
-        <v>1.051961833869488</v>
+        <v>1.030906613325531</v>
       </c>
       <c r="M19">
-        <v>1.063505779319125</v>
+        <v>1.043100105312515</v>
       </c>
       <c r="N19">
-        <v>1.047396276442586</v>
+        <v>1.027832319400368</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03951430219767</v>
+        <v>0.9976337864291265</v>
       </c>
       <c r="D20">
-        <v>1.048517998960308</v>
+        <v>1.023134272117888</v>
       </c>
       <c r="E20">
-        <v>1.048394424218313</v>
+        <v>1.015982330334973</v>
       </c>
       <c r="F20">
-        <v>1.059961555732575</v>
+        <v>1.028285764304004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041789714297594</v>
+        <v>1.050947667292484</v>
       </c>
       <c r="J20">
-        <v>1.045686838145484</v>
+        <v>1.025256227353216</v>
       </c>
       <c r="K20">
-        <v>1.051848382132337</v>
+        <v>1.036782175457025</v>
       </c>
       <c r="L20">
-        <v>1.051725227891255</v>
+        <v>1.029749853111178</v>
       </c>
       <c r="M20">
-        <v>1.063253465216736</v>
+        <v>1.041848831889365</v>
       </c>
       <c r="N20">
-        <v>1.047171833397608</v>
+        <v>1.02671220879459</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038389232387267</v>
+        <v>0.9916971657746081</v>
       </c>
       <c r="D21">
-        <v>1.047630483523288</v>
+        <v>1.018535517507064</v>
       </c>
       <c r="E21">
-        <v>1.04741782694726</v>
+        <v>1.011142888346136</v>
       </c>
       <c r="F21">
-        <v>1.058936082357901</v>
+        <v>1.02314457015448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041525550387346</v>
+        <v>1.048989936999694</v>
       </c>
       <c r="J21">
-        <v>1.044957872187635</v>
+        <v>1.021546173977629</v>
       </c>
       <c r="K21">
-        <v>1.051167868634529</v>
+        <v>1.033174036754892</v>
       </c>
       <c r="L21">
-        <v>1.050955984357304</v>
+        <v>1.025916186324153</v>
       </c>
       <c r="M21">
-        <v>1.06243290189448</v>
+        <v>1.037700339219559</v>
       </c>
       <c r="N21">
-        <v>1.046441832224485</v>
+        <v>1.022996886717662</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037682257325402</v>
+        <v>0.9878725860495026</v>
       </c>
       <c r="D22">
-        <v>1.047072489510899</v>
+        <v>1.015576130819369</v>
       </c>
       <c r="E22">
-        <v>1.046804484001171</v>
+        <v>1.008033311891742</v>
       </c>
       <c r="F22">
-        <v>1.05829180789423</v>
+        <v>1.019839080954795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041357756452176</v>
+        <v>1.047715480264996</v>
       </c>
       <c r="J22">
-        <v>1.044499305022175</v>
+        <v>1.019154448694182</v>
       </c>
       <c r="K22">
-        <v>1.050739317240852</v>
+        <v>1.030845210427546</v>
       </c>
       <c r="L22">
-        <v>1.050472323664052</v>
+        <v>1.023447289608249</v>
       </c>
       <c r="M22">
-        <v>1.061916782544428</v>
+        <v>1.035027507217749</v>
       </c>
       <c r="N22">
-        <v>1.045982613841052</v>
+        <v>1.020601764909977</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038056999985714</v>
+        <v>0.9899090954272006</v>
       </c>
       <c r="D23">
-        <v>1.047368290206895</v>
+        <v>1.017151602334161</v>
       </c>
       <c r="E23">
-        <v>1.047129563635816</v>
+        <v>1.009688302228094</v>
       </c>
       <c r="F23">
-        <v>1.058633303957429</v>
+        <v>1.021598530390004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041446868495636</v>
+        <v>1.048395322855664</v>
       </c>
       <c r="J23">
-        <v>1.044742422398927</v>
+        <v>1.020428122855398</v>
       </c>
       <c r="K23">
-        <v>1.050966565133895</v>
+        <v>1.032085645421146</v>
       </c>
       <c r="L23">
-        <v>1.050728721700543</v>
+        <v>1.024761820946773</v>
       </c>
       <c r="M23">
-        <v>1.062190405674327</v>
+        <v>1.036450729928503</v>
       </c>
       <c r="N23">
-        <v>1.046226076472365</v>
+        <v>1.021877247834595</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039533170899048</v>
+        <v>0.9977318217073022</v>
       </c>
       <c r="D24">
-        <v>1.048532878564926</v>
+        <v>1.023210262409272</v>
       </c>
       <c r="E24">
-        <v>1.04841080848951</v>
+        <v>1.016062376931692</v>
       </c>
       <c r="F24">
-        <v>1.059978756002814</v>
+        <v>1.028370768227198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041794114121754</v>
+        <v>1.050979772318047</v>
       </c>
       <c r="J24">
-        <v>1.045699055278041</v>
+        <v>1.025317463728831</v>
       </c>
       <c r="K24">
-        <v>1.051859779345747</v>
+        <v>1.036841681734912</v>
       </c>
       <c r="L24">
-        <v>1.051738124183237</v>
+        <v>1.029813171030504</v>
       </c>
       <c r="M24">
-        <v>1.063267218629964</v>
+        <v>1.041917329253462</v>
       </c>
       <c r="N24">
-        <v>1.047184067879894</v>
+        <v>1.026773532132883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04124791215469</v>
+        <v>1.006438116585395</v>
       </c>
       <c r="D25">
-        <v>1.049884376034758</v>
+        <v>1.029964168359089</v>
       </c>
       <c r="E25">
-        <v>1.049900556302729</v>
+        <v>1.023188066000725</v>
       </c>
       <c r="F25">
-        <v>1.061542134397958</v>
+        <v>1.03593301031324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042189637315633</v>
+        <v>1.053798732239585</v>
       </c>
       <c r="J25">
-        <v>1.046808115743321</v>
+        <v>1.030750738165042</v>
       </c>
       <c r="K25">
-        <v>1.052893290187217</v>
+        <v>1.0421144783226</v>
       </c>
       <c r="L25">
-        <v>1.052909421083934</v>
+        <v>1.035436773784023</v>
       </c>
       <c r="M25">
-        <v>1.064515901950715</v>
+        <v>1.047997993656713</v>
       </c>
       <c r="N25">
-        <v>1.048294703338246</v>
+        <v>1.032214522441999</v>
       </c>
     </row>
   </sheetData>
